--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/174.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/174.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-9.649738419580924</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>7.471436166964663</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.9699739712539793</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-16.45267723088925</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-6.757310325701858</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-16.43775360044538</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-10.21207181908254</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>7.274775938876474</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.5588795663506836</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-16.96384684840107</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-6.695358521775219</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-16.43716763388493</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-10.88883445882719</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7.038097315106834</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.06413154872772175</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-17.63603994467763</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-6.566673705763229</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-16.40307563592151</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-11.62424629081326</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6.780907792404975</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-0.4734920206656327</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-18.22190221247197</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-6.432624085962688</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-16.45659391510937</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-12.39045290577754</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>6.512948663896694</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-1.033628147544932</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-18.87455041493143</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-6.319218468696379</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-16.4574976940416</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-13.15469029023723</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6.245678218153</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-1.592324666456581</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-19.52522873119755</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-6.163440007809529</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-16.51230046489869</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-13.90027824660413</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>5.984929883288181</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-2.137387501951258</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-20.15800146123735</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-6.037782049728423</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-16.45871597480005</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-14.63306313175513</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>5.728659061065823</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-2.67309063918313</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-20.80312333989606</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-5.868787167050753</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-16.33972503648202</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-15.36238710319882</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5.473598595688135</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-3.206263671921493</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-21.35408918698729</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-5.752284216940323</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-16.28518710926807</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-16.09888769462653</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.21602831011444</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-3.744683180014444</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-21.95130433911886</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-5.620830291135187</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-16.03159435514159</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-16.86316076123323</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4.948745385547372</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-4.303405784396037</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-22.64417444771444</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-5.519419266545937</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-15.72366230653351</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-17.66034448425979</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4.669952888182747</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-4.886187757699856</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-23.37337197479956</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-5.375945804695574</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-15.35707732260616</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-18.48477250624941</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.381632466542372</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-5.488886703531271</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-24.18087134595131</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-5.176375103761472</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-14.96532226094373</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-19.3288592907714</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4.086436947803059</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-6.105957207750552</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-25.07945644329334</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-4.938749533385276</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-14.4817343212947</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-20.16775712488722</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3.793056117949949</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-6.719234324486199</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-26.02222586152821</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-4.712616124984465</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-13.94830280800639</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-20.96858951821318</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3.512987601174186</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-7.304683661931545</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-26.80864065770024</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-4.461506882444217</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-13.63769914914812</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-21.70607012842015</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3.255074581704846</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-7.843819613752035</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-27.70334032434369</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-4.213564259881891</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-13.27229602997829</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-22.35220640006822</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>3.029106665392248</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-8.316178193759928</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-28.59944381792952</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-3.951150524517236</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-12.92444045743937</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-22.88681690827243</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.842141735734927</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-8.707005750721756</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-29.39514651429128</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-3.714582869692553</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-12.70787118935133</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-23.30750471225548</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2.695018055088268</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-9.014549998639025</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-30.0566275053027</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-3.507457891541805</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-12.55150750244047</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-23.61622221654041</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2.587052825099618</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-9.240238244828427</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-30.83551144919998</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-3.322690089799316</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-12.49014985141562</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-23.8201831439375</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>2.515723249907144</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-9.389344088703508</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-31.35154011932203</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-3.237542933108672</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-12.43622437512643</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-23.93687518673809</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>2.474913502925055</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-9.474651925539398</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-31.69611849927668</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-3.163007397904429</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-12.37292674441557</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-23.980282547628</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>2.459733004130419</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-9.506384920963962</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-31.93506795876542</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-3.140846601029685</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-12.34200624907877</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-23.96157150404189</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>2.466276663288269</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-9.49270619347779</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-32.08621709995644</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-3.160582744147892</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-12.2716604669148</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-23.89709829671158</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>2.488824347047391</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-9.445572989540148</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-32.13932251464438</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-3.185484935962262</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-12.33407087142114</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-23.79900164743474</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>2.523130880215382</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-9.37385933409444</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-31.97346488987645</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-3.252808274427593</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-12.26238100776822</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-23.67458150811822</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2.566643310738693</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-9.28290186442317</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-31.93802052381842</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-3.311634238803633</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-12.17715432340523</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-23.53530510038831</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>2.615351301648965</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-9.181083704585006</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-31.60557166149331</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-3.382968312499814</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-12.03154328840592</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-23.388528653902</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2.666682219338638</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-9.073782633769033</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-31.33293941233553</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-3.418611989685652</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-11.88219133694724</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-23.23379247316058</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>2.720796829328144</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-8.960662591112344</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-31.01490694701384</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-3.480388398182157</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-11.79271391211182</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-23.0736743577109</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>2.776793619014283</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-8.843608079601275</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-30.67101463087135</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-3.509436732083147</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-11.71952768187515</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-22.90725105981058</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>2.834995468225577</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-8.721944158032658</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-30.37047113216729</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-3.559311590625124</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-11.4932121677195</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-22.72534651027555</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>2.898611448058079</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-8.588962651676145</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-29.98435079590328</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-3.527155233865083</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-11.35508296563895</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-22.52510976734726</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>2.968638594890925</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-8.44257937665312</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-29.60408804076819</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-3.54994713754713</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-11.23143408974717</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-22.30648210176759</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>3.045097447623829</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-8.282751398879562</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-29.21044817341444</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-3.565320170868301</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-11.12381487535654</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-22.0617375173126</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>3.130689955280182</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-8.103830620940718</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-28.83406858474092</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-3.584911404895244</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-10.99828560959845</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-21.78903956397141</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3.226058364396182</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-7.904474504184181</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-28.41684668899223</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-3.638910233641026</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-10.93207138826749</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-21.48963562697941</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>3.330766437207672</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-7.685594950857783</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-28.04088371992742</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-3.663336521827806</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-10.84758957665083</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-21.15629339094317</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>3.447343471807455</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-7.441904769421107</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-27.66714876007439</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-3.680562491070041</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-10.79129374975552</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-20.79109411989005</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3.575061604869796</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-7.174925470062834</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-27.21925098139774</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-3.764769718299872</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-10.795759675688</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-20.4031485447436</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>3.710734615510321</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-6.891317461911363</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-26.86278309293595</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-3.785122714872142</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-10.81895997882721</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-19.99127983133974</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>3.854774068248108</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-6.590220419151486</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-26.48396718524631</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-3.853309173061387</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-10.78996953153981</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-19.56200060059427</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.004902357812178</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-6.276395399942137</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-26.01902423040478</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-3.912219865703904</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-10.73995712007804</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-19.1262743420019</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>4.157285313323502</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-5.957857274453735</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-25.65955396367591</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-4.007782264347435</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-10.74265521469255</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-18.68234944563472</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>4.312535510894854</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-5.633325526463014</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-25.32209208062432</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-4.058436306199808</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-10.6662080970997</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-18.23665757836037</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>4.468403656647724</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-5.307502032589498</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-24.90467546049329</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-4.092217545229089</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-10.70139919618215</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-17.79896983823646</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>4.621472584939121</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-4.987529964028085</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-24.53891967184178</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-4.152487849400011</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-10.64957260576486</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-17.36644264908976</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>4.772736756242695</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-4.671330521518806</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-24.09422352428854</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-4.249502506368001</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-10.65195619855314</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-16.94570761462213</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>4.919876954417708</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-4.363751745707641</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-23.71300752537484</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-4.279772669382752</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-10.67995348217875</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-16.545540441962</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>5.059824123692188</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-4.071209126236083</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-23.34968805573945</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-4.297643206932571</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-10.63222203659354</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-16.1614290003593</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>5.194156254388705</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-3.79040406531999</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-23.05330848888543</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-4.33848143952105</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-10.68765050055756</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-15.79685850700554</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>5.321654490205246</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-3.523884434539756</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-22.58967426303213</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-4.382052356666621</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-10.67610331771658</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-15.45564671765964</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>5.440983678865597</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-3.274441208134456</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-22.34207088971474</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-4.428687744758566</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-10.78752634893183</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-15.12939067555254</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>5.555082517228737</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-3.035931395992784</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-21.95955069028682</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-4.442372547573878</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-10.91046345753267</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-14.82055820417763</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>5.663087953710825</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-2.810159102995065</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-21.74332511336858</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-4.470873711081084</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-11.06469515311623</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-14.53323173602165</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>5.763572272823668</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-2.600108795572039</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-21.41601606904218</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-4.501029847269924</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-11.21839716141352</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-14.26014218089359</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>5.859077633607119</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-2.400466397930045</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-21.15041654001831</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-4.498616279454795</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-11.37553551598056</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-14.0050518572702</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>5.948288271409046</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-2.213982356826517</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-20.88950398159237</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-4.534332807112743</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-11.59702094419442</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-13.77368563760329</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>6.029202073740407</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-2.044841846102827</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-20.59707777254706</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-4.516303107118422</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-11.7715694577525</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-13.5602331220475</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>6.103851063881137</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-1.888797167029364</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-20.45671772067931</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-4.538270691871483</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-12.01689412439465</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-13.36873491995278</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>6.170822152804191</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-1.748802211190086</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-20.19473644238757</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-4.540574983978447</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-12.24956588598571</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-13.20418055787909</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>6.228370394482522</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-1.628504577062582</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-20.11838637061825</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-4.560757732164808</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-12.43673419913948</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-13.06152504570508</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>6.278260131757675</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-1.524216119476162</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-19.99837728094097</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-4.593093839546251</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-12.67387850775409</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-12.94365090247378</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>6.319483284986901</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-1.438044106915461</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-19.88052374489135</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-4.581200208121301</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-12.86097729945154</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-12.85648110340194</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>6.349968460832872</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-1.374318536450079</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-19.81003351848796</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-4.654389593297418</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-13.07827488755823</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-12.79980296859202</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>6.369790038084394</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-1.332883928224133</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-19.68675487057715</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-4.659256321575564</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-13.25143297198981</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-12.77834584291051</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>6.377294061915065</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-1.317197674622991</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-19.75118599875828</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-4.70947167688936</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-13.29300680287197</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-12.79882700594848</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>6.370131353461098</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-1.332170449738755</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-19.75452801257594</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-4.74993140376405</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-13.38261996007451</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-12.86154424623313</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>6.348197769593641</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-1.378019952177781</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-19.78435254239046</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-4.818311865927937</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-13.49384601383017</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-12.96879736259746</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>6.31068902060937</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-1.456427452221161</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-19.8395229412259</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-4.859191274870217</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-13.4626954355784</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-13.1261776002725</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>6.255649726366528</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-1.571480435394313</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-20.02860031646816</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-4.929759626756284</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-13.57953286402313</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-13.3357739502784</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>6.18234932124184</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-1.72470606071186</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-20.14780786624608</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-5.00600239693737</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-13.45733235180478</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-13.59773390802069</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>6.090736222881989</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-1.916212154840365</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-20.3523862080166</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-5.055322166555984</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-13.50085940455511</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-13.91640601461276</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>5.979289651820618</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-2.149177723193323</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-20.63130850757104</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-5.139899980970029</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-13.46503268072912</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-14.29698787362855</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>5.846191892970432</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-2.427402479161485</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-20.87974059163183</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-5.173372397345799</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-13.35609586921387</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-14.74176307744987</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>5.690644324376793</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-2.75255584528329</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-21.25099394772866</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-5.267456406517268</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-13.22467383239588</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-15.25713554600002</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>5.510407355871503</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-3.129319413746302</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-21.61059101172975</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-5.334908817014707</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-13.13149190710201</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-15.85388380451087</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>5.301711502603703</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-3.565572836408046</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-22.00970353992177</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-5.412675904139403</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-12.99987123755167</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-16.53523386736987</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>5.063428557133083</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-4.06367449437481</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-22.57789117366417</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-5.466339779084069</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-12.8628874842277</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-17.30835961037298</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>4.793049658965921</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-4.628868856859706</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-23.09926797158928</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-5.514146317700482</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-12.82917950954684</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-18.19076620863975</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>4.484452867390914</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-5.273953099977255</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-23.79279018044198</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-5.576946592071318</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-12.74123486729611</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-19.18762623705829</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>4.135829220396913</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-6.002708639871914</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-24.63409461006098</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-5.652681784506505</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-12.63937600214381</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-20.30464259353913</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>3.7451842904702</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-6.819304585874261</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-25.47694324931661</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-5.707535022593666</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-12.51573705788865</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-21.5628844136158</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>3.305149742378835</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-7.739143550992264</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-26.45616688331322</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-5.738722151333457</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-12.43196039247185</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-22.96440805942668</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>2.815006421529609</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-8.76372884086328</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-27.55281837680273</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-5.765687120102687</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-12.44530851208619</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-24.50669797891543</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2.275634071223571</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-9.891221458592371</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-28.68231489226988</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-5.811661310974936</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-12.43936277229766</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-26.20939044674184</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>1.680165458860241</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-11.13597652278522</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-29.98226769785975</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-5.799092228977051</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-12.49952531638284</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-28.06576447531815</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1.03095106007055</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-12.49308064861496</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-31.36614218375977</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-5.893841394633005</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-12.45149592169909</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-30.05860103027011</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.3340127459197708</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-13.9499458434506</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-32.8970947127179</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-5.874688847144638</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-12.61107745887412</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-32.20216445162274</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>-0.4156380337392685</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-15.51700006760734</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-34.59419695301747</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-5.840269374631434</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-12.65271087957599</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-34.47744011611274</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-1.211351451328685</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-17.18034266136656</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-36.32675035208607</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-5.864248265897103</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-12.81127607927047</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-36.85150004218733</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-2.041611875074892</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-18.91590159024997</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-38.11937395886643</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-5.841990862961517</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-13.03852185672266</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-39.32453255942368</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-2.90648516792971</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-20.72381453278692</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-40.20224331445741</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-5.824301659739016</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-13.21919156898284</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-41.87400619877098</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-3.798091584804867</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-22.58760983556103</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-42.24551342908831</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-5.750698927318968</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-13.45019812616765</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-44.43124968679354</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-4.692415286860027</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-24.45708529412915</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-44.36363921906601</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-5.694010174075813</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-13.76795918448182</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-47.03272148225116</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-5.602206590583245</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-26.35889390193048</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-46.66741206522515</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-5.559433972058389</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-14.01723829777063</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-49.575849939623</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-6.491593959228899</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-28.21805055295366</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-48.9012822544834</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-5.462782775597992</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-14.35821786722449</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-52.1167731888754</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-7.380210118602377</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-30.07559508433332</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-51.21190328546064</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-5.325284636166582</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-14.70308401714145</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-54.49551482524824</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-8.212107838329775</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-31.81457658230241</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-53.36109780348646</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-5.157314411216201</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-15.01287162652429</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-56.94709978401392</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-9.069480453215769</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-33.60681026535746</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-55.69300492653676</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-4.915967131938721</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-15.30251125575512</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-48.27130364282889</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-6.035365727886946</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-27.2643606529323</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-48.08504576627789</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-5.970227294853794</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-27.12819664242333</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-48.12007299560007</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-5.982477079259101</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-27.15380333412326</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-48.42586477828792</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-6.08941912073162</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-27.37735272855686</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-48.97321613791767</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-6.280839803416603</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-27.77749449794034</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-49.70625269448814</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-6.53719864061157</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-28.31338161981994</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-50.54357334708612</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-6.830027895763073</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-28.92550573639932</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-51.39551343442668</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-7.127969885412547</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-29.54831740564914</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-52.15061303869665</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-7.392044650554801</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-30.10033374103878</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-52.7185577461979</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-7.590667275171559</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-30.51553029837492</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-53.03319489536529</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-7.70070273380716</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-30.74554610698965</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-53.03960071998715</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-7.702942990089898</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-30.75022909160905</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-52.71348664010391</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-7.588893799006019</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-30.51182306109582</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-52.05446756235352</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-7.358420485025873</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-30.03004649255513</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-51.07672269358325</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-7.016481825371592</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-29.3152651096058</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-49.83153750402897</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-6.581013465130481</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-28.40497120754008</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-48.4004031208074</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-6.08051462497864</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-27.35873895790216</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-46.88048547704521</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-5.548966346390794</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-26.24760161514747</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-45.38843617872023</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-5.027164234712083</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-25.15683745473142</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-44.03605938785498</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-4.554208638639638</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-24.16818102326478</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-42.90329006546774</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-4.158054553697482</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-23.34006885547925</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-42.0458884197456</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-3.858202538219926</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-22.7132645084075</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-41.48758021354106</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-3.662950007829583</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-22.30511272516699</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-41.21163976138321</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-3.566447626309626</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-22.10338617634539</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-41.18086099839987</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-3.555683623044052</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-22.08088533029301</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-41.34206020386706</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-3.612058493437504</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-22.19873017376337</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-41.62712888412086</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-3.711753214983831</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-22.4071299230391</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-41.97232079666888</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-3.832474339348943</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-22.65948282256832</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-42.32728143416441</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>-3.956611799428796</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-22.91897715842788</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-42.6525087409038</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-4.070350866645078</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-23.15673491253038</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-42.92056686870211</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-4.164096627790388</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-23.35269908009433</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-43.11970074097206</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>-4.233738076751804</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-23.49827610039839</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-43.25163656098277</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>-4.279878904380582</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-23.59472791610203</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-43.32505705525425</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>-4.305555649106349</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-23.64840204327816</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-43.3562144707638</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>-4.316452075401105</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-23.67117970364581</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-43.36390637469708</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>-4.319142101608496</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-23.67680287785674</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-43.36019455783887</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>-4.31784399847145</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-23.67408935035901</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-43.35899115260579</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>-4.317423141471264</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-23.67320959973672</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-43.37486424395186</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>-4.322974306967302</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-23.68481363934502</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-43.40588464852046</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>-4.333822817554177</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-23.7074911377246</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-43.44111331131047</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>-4.346143047627062</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-23.73324508756653</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-43.46594358508127</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>-4.354826734755704</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-23.75139728451666</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-43.45730089491039</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>-4.35180419790869</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-23.74507903705758</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-43.39977926286426</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>-4.331687631316303</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-23.7030277893173</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-43.28538097691236</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>-4.291680061024127</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-23.61939680576371</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-43.1021563616433</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-4.227602425475324</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-23.48545026400677</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-42.84656729978546</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>-4.138217368058572</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-23.29860161980857</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-42.52131138738886</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-4.024468296821409</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-23.06082295351121</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-42.12758870424761</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-3.886774905785634</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-22.77299158467142</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-41.6769130277421</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-3.729163813480032</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-22.44352467197937</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-41.18511245417355</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-3.557170449654211</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-22.08399336136996</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-40.6629506547635</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-3.374559104388343</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-21.70226644566132</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-40.13056655837782</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-3.188372799398234</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-21.31306650932885</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-39.60840498191084</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-3.00576153210041</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-20.93133975660297</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-39.10705064563953</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-2.830427009535146</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-20.56482415803136</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-38.6423281587191</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-2.667903441921196</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-20.22508831026729</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-38.22882322253088</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-2.523291766465961</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-19.92279510517307</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-37.87303674154228</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-2.398865490943429</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-19.66269703558611</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-37.58516873730211</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-2.298191784876286</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-19.45225083765675</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-37.36833610826344</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-2.222360695487857</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-19.29373512317621</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-37.21377870254162</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-2.168308607013455</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-19.18074577417983</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-37.11532653108714</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-2.133877740002576</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-19.10877221388377</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-37.06548129804143</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-2.11644577720512</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-19.07233280545746</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-37.05126958702302</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-2.11147563256694</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-19.06194331963118</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-37.06503831691008</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-2.116290857062719</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-19.07200896364986</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-37.10218519709654</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-2.129281929506053</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-19.09916522827472</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-37.1577738291215</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-2.148722483922398</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-19.13980335437916</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-37.23294618556635</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-2.175011892976659</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-19.19475818218286</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-37.33200772248264</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-2.209655868351393</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-19.26717721972091</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-37.45852887894672</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-2.253903070296464</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-19.35967064011951</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-37.61837531509671</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-2.309804847818841</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-19.47652654020161</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-37.82173848943999</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-2.380925375759265</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-19.62519539609741</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-38.07843009929751</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-2.470696018206687</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-19.81285005913461</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-38.3950335289494</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-2.581419127920649</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-20.04430331910181</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-38.77851615685106</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-2.715531348780798</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-20.32464868512081</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-39.2339169500346</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-2.874794917223274</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-20.65756989917673</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-39.75806428150462</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-3.058100646262431</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-21.04074834012171</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-40.34742314997529</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-3.264212269014984</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-21.47159974166243</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-40.99921035426765</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-3.492156439456757</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-21.94808944174004</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-41.70197130620487</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-3.737927238811614</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-22.46184355199199</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-42.44584747354224</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-3.99807692379847</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-23.00565498237176</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-43.22973331572602</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-4.27221886282537</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-23.57871552633066</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-44.0458887541907</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-4.557646181967598</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-24.17536679154377</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-44.88799941053254</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-4.852150605675057</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-24.79099264524265</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-45.75981503687726</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-5.157043503873444</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-25.42833434754099</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-46.653342178488</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-5.469529391476581</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-26.08154827520553</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-47.55812236800929</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-5.785950714838546</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-26.74298875501555</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-48.47707155994466</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-6.107327246710271</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-27.41478749848312</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-49.40004077428136</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-6.430109667905066</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-28.08952508342487</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-50.31581149196657</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-6.750374618157124</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-28.75900020005198</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-51.23501129327025</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-7.071838793579056</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-29.43098215175371</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-52.15641873010554</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-7.394075027192033</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-30.1045779976611</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-53.07969960410824</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-7.716966442554797</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-30.77954342171936</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-54.02642194666623</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-8.048055849637226</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-31.47164575525933</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-55.01133506393421</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-8.392501401796562</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-32.19166749357964</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-56.02182656684715</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-8.745892272088383</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-32.93038833679827</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-57.10255604624115</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-9.123846891372279</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-33.72045672431835</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-58.2054930831619</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-9.509567976835074</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-34.52675996940496</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-59.38642709223053</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-9.92256630093669</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-35.39008298048413</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-60.55052155502954</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-10.32967546922217</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-36.24109542409803</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-61.86201603497125</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-10.78833363142688</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-37.19986480049186</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-15.05004354377157</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>5.582831936075316</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-2.977924594424187</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-15.13766536981259</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>5.552188676560579</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-3.041980619666152</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-15.13466497203715</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>5.553237980961487</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-3.039787175814047</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-14.97452428503084</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>5.609242664412215</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-2.922716163343493</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-14.60747068343114</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>5.737609297223218</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-2.654381253748987</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-13.99437746064116</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>5.952021340221304</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-2.206178828290235</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-13.12741142699985</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>6.255218230307719</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-1.572382425681005</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-12.02246120831447</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>6.641643369247266</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-0.7646074420132892</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-10.73016865678805</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>7.093586199186042</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>0.1801243450396453</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-9.338564729717447</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>7.580260378505061</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>1.197457814414216</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-7.955506447258252</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>8.063945959921252</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>2.20854398158487</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-6.693980499764731</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>8.505129038844045</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>3.13078381139854</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-5.663804516828471</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>8.865404000201085</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>3.883895013802995</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-4.952376514658098</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>9.11420585564689</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>4.403985179962382</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-4.611596921998144</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>9.233383895720097</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>4.653112448539869</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-4.652127808215848</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>9.219209362720182</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>4.623482302856477</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-5.038529553209328</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>9.084076263083135</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>4.341002913311997</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-5.700138135014917</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>8.852697343178493</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>3.857333285192213</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-6.549774779838421</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>8.555560917507954</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>3.236205549942432</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-7.495804581599068</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>8.224713707014391</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>2.544609499058287</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-8.453431692894501</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>7.889810664979714</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>1.844535223217368</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-9.349982936546541</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>7.57626718307801</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>1.189110522673001</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-10.12715052651612</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>7.304474763062371</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>0.6209613638433312</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-10.74535009101736</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>7.088276921236541</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>0.1690259420715705</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-11.18094582686138</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>6.935939612370928</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-0.1494167646286137</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-11.42491252455904</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>6.850619148643067</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-0.3277688676605992</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-11.48102102196473</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>6.830996785989047</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-0.3687870418815393</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-11.36083492499671</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>6.873028479755962</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-0.2809248731849839</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-11.08280235074795</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>6.970262521902785</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-0.07766887637628916</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-10.67122522892221</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>7.114199998719679</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>0.2232149980631746</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-10.15490146434942</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>7.294769656147515</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>0.6006740124532128</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-9.564669649245278</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>7.501186567336075</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>1.032163582520146</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-8.930971227894835</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>7.722804696709777</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>1.495429459389813</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-8.285987352393748</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>7.948369595009727</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>1.966945579019796</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-7.660926378323639</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>8.166967021089341</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>2.423897041250852</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-7.079752576524418</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>8.370216147892071</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>2.848764741458206</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-6.563664132782069</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>8.550703508504121</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>3.226051724315284</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-6.126171220747689</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>8.703704301172491</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>3.545881363603258</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-5.767444712914262</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>8.829158768067622</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>3.808128742811961</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-5.484903479632496</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>8.927969586402003</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>4.014680799402504</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-5.273543537885236</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>9.001886757940385</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>4.169195700260238</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-5.121519912188386</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>9.055052728396404</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>4.28033272678663</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-5.020170513729827</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>9.090496818744098</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>4.354424307837221</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-4.96272687447016</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>9.11058610956167</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>4.396418538871446</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-4.942684074514556</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>9.117595512905465</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>4.411070848209016</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-4.962217909813985</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>9.110764105578731</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>4.39679061800214</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-5.02801037689121</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>9.087755047974543</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>4.348692967881763</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-5.149173429781399</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>9.045381691459772</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>4.260116594562477</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-5.336911731874038</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>8.979725521395626</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>4.122870317452262</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-5.596207467235431</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>8.889044159584891</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>3.933311905811006</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-5.928894151884045</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>8.772696385572383</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>3.690100965884472</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-6.335004351721641</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>8.630670810353511</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>3.39321369033698</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-6.80609161505382</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>8.465921341909247</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>3.048824866289358</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-7.332106457300858</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>8.281962503708002</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>2.664281179687253</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-7.90104618909548</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>8.082991897440747</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>2.248357208827192</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-8.491773255896909</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>7.876401785955289</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>1.816505584502139</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-9.083097303276652</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>7.669602897369272</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>1.384217536916795</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-9.65543789386529</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>7.469442936767525</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>0.9658073647688058</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-10.18607752977553</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>7.283866707571057</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>0.5778827180450726</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-10.65848127903365</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>7.118656835347293</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>0.2325314756193719</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-11.0635368236808</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>6.977000096001394</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-0.06358479317611364</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-11.39152741698624</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>6.862294647334471</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-0.3033626507394051</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-11.63922237415965</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>6.775670330128366</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-0.4844403016614245</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-11.80888219473576</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>6.716336598499638</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-0.6084702864312251</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-11.90134337728824</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>6.68400091069203</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-0.6760641281837447</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-11.92034851483693</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>6.677354400474986</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-0.6899578533610301</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-11.87228049573003</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>6.694164832879835</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-0.6548176789962398</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-11.76417461508253</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>6.731971812092974</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-0.5757867647544082</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-11.60648887263479</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>6.787117948003647</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-0.4605104420057713</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-11.41284495901338</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>6.854839438945548</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-0.3189468615677367</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-11.19788144638783</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>6.930016857645996</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-0.1617975665462355</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-10.97699542596189</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>7.007265506218099</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-0.0003186161603355308</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-10.76521055865082</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>7.081331283473967</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>0.154506926963958</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-10.57715547023937</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>7.147098240608146</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>0.2919847910354447</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-10.42546644745575</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>7.200147193143315</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>0.4028772057610543</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-10.32028207944072</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>7.236932455806856</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>0.4797723452149678</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-10.26857076614272</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>7.255017027480773</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>0.5175759535118427</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-10.27419208841809</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>7.253051128742031</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>0.5134664801325045</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-10.33896387909288</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>7.230399023889156</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>0.4661149965365223</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-10.46261528371801</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>7.1871554366177</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>0.3757195111449821</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-10.64388621810985</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>7.123761045790386</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>0.2432012097847534</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-10.88385891419229</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>7.039837371350387</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>0.06776892570473179</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-11.18231557615357</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>6.935460581233059</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-0.1504181212448796</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-11.53795262333439</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>6.81108656596529</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-0.4104069470943484</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-11.95144928310892</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>6.666477784952047</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-0.7126941017078976</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-12.4177362386079</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>6.503407088628036</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-1.053573655821012</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-12.92684804798552</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>6.325359608888562</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-1.425760363014334</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-13.46952299086527</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>6.135574370915749</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-1.822483433165951</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-14.03022175308537</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>5.939485811060161</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-2.232382834818373</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-14.58927591433014</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>5.743972403957738</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-2.641079949251412</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-15.12976132693107</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>5.554952892375034</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-3.03620236106087</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-15.63035080718578</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>5.379885856604637</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-3.402158810861904</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-16.06955039172771</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>5.226288203417392</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-3.723236114826169</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-16.43421829065079</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>5.098755902753385</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-3.989826954047142</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-16.7084543283746</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>5.002849592054851</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-4.190307488959387</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-16.88503584790049</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>4.941095191663733</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-4.319397588801853</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-16.95961209389921</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>4.915014255405872</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-4.373916629456267</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-16.94457671878739</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>4.920272453303245</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-4.362925003154911</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-16.83910597277667</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>4.957157868584433</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-4.285820506775344</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-16.68575523290774</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>5.010787959748933</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-4.173713292080703</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-16.47536858320765</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>5.084364749876285</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-4.019909917366142</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>